--- a/time_driplines.xlsx
+++ b/time_driplines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://earthac-my.sharepoint.com/personal/gguevara_earth_ac_cr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{155AD80E-8AFF-4C48-BD35-F0B7F73861B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBD59E43-93C1-47E8-B145-8356CA18ADEA}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{155AD80E-8AFF-4C48-BD35-F0B7F73861B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D755E03-A727-44A5-B187-42196C11E5F5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -546,8 +546,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -605,6 +605,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -927,7 +931,7 @@
   <dimension ref="A1:H1537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
